--- a/medicine/Mort/Liste_d'athlètes_olympiques_morts_à_la_guerre/Liste_d'athlètes_olympiques_morts_à_la_guerre.xlsx
+++ b/medicine/Mort/Liste_d'athlètes_olympiques_morts_à_la_guerre/Liste_d'athlètes_olympiques_morts_à_la_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
+          <t>Liste_d'athlètes_olympiques_morts_à_la_guerre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette page recense les athlètes ayant participé aux Jeux olympiques puis morts du fait d'une guerre, quelle qu'elle soit[1]. La liste est organisée chronologiquement par conflit militaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette page recense les athlètes ayant participé aux Jeux olympiques puis morts du fait d'une guerre, quelle qu'elle soit. La liste est organisée chronologiquement par conflit militaire.
 Cette page sera complétée progressivement.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
+          <t>Liste_d'athlètes_olympiques_morts_à_la_guerre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,75 +521,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Première Guerre mondiale</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tués au combat</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Guerre d'Hiver</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Guerre d'Hiver (1939-1940) résulte de la tentative d'invasion de la Finlande par l'URSS.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27athl%C3%A8tes_olympiques_morts_%C3%A0_la_guerre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Seconde Guerre mondiale</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tués au combat
-Morts dans un camp de concentration allemand
-Autres</t>
         </is>
       </c>
     </row>
